--- a/media/kegiatan/binaan_teknis/exported/REKAPITULASI PEMBINAAN TEKNIS BNNP JAWA BARAT TAHUN 2024.xlsx
+++ b/media/kegiatan/binaan_teknis/exported/REKAPITULASI PEMBINAAN TEKNIS BNNP JAWA BARAT TAHUN 2024.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Kegiatan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Kegiatan Satuan Kerja BNNP Jawa Barat" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -45,7 +43,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -59,22 +57,45 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,327 +469,392 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="28.8" customWidth="1" min="2" max="2"/>
-    <col width="20.4" customWidth="1" min="3" max="3"/>
-    <col width="26.4" customWidth="1" min="4" max="4"/>
-    <col width="4.8" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
-    <col width="16.8" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="19.2" customWidth="1" min="10" max="10"/>
-    <col width="25.2" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="26.4" customWidth="1" min="13" max="13"/>
-    <col width="52.8" customWidth="1" min="14" max="14"/>
-    <col width="82.8" customWidth="1" min="15" max="15"/>
+    <col width="6.5" customWidth="1" min="1" max="1"/>
+    <col width="31.2" customWidth="1" min="2" max="2"/>
+    <col width="22.1" customWidth="1" min="3" max="3"/>
+    <col width="28.6" customWidth="1" min="4" max="4"/>
+    <col width="6.5" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="7" max="7"/>
+    <col width="32.5" customWidth="1" min="8" max="8"/>
+    <col width="20.8" customWidth="1" min="9" max="9"/>
+    <col width="27.3" customWidth="1" min="10" max="10"/>
+    <col width="28.6" customWidth="1" min="11" max="11"/>
+    <col width="28.6" customWidth="1" min="12" max="12"/>
+    <col width="57.2" customWidth="1" min="13" max="13"/>
+    <col width="40" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Satuan Kerja Pelaksana</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Kegiatan</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Satuan Kerja Target</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tanggal Awal</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tanggal Akhir</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Hari Pelaksanaan</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Peserta</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Tujuan</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Kendala</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Kesimpulan</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Tindak Lanjut</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Dokumentasi</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>BNNP Jawa Barat</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Dikirim ke BNN Pusat</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BNN Kota Depok </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>45644</v>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>Impedit maxime aper</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Ada, Sakit</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>Exercitationem illum</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>Tidak, Pemblokiran jalan</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>uploads/kegiatan/dayatif/binaan_teknis/exported_data_3_CROCL99.xlsx</t>
-        </is>
-      </c>
-    </row>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>BNN Pusat</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>45372</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>45374</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>In voluptatem Conse</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Aut qui dolor repreh</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>Et nostrum sunt tot</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>Eos amet incidunt</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_gkdztYU.xlsx</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>SATUAN KERJA PELAKSANA</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>JUMLAH KEGIATAN</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>SATUAN KERJA TARGET</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>TANGGAL</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>JUMLAH HARI PELAKSANAAN</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>JUMLAH PESERTA</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>TUJUAN</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>HAMBATAN/KENDALA</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>KESIMPULAN</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>TINDAK LANJUT</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>DOKUMENTASI</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BNN Kota Bandung </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>45372</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>45381</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>asas</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Ada, Test</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>Kesimpulan</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>Tidak, Anggaran tidak ada alokasi kegiatan</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_uEpP616.xlsx</t>
-        </is>
-      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Rincian Detail</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>BNNP Jawa Barat</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>5 kali</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Dikirim ke BNN Pusat</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>BNN Pusat</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>21 - 23 Maret 2024</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>24 orang</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>3 hari</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>In voluptatem Conse</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Aut qui dolor repreh</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Et nostrum sunt tot</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Eos amet incidunt</t>
+        </is>
+      </c>
+      <c r="N6" s="4">
+        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_gkdztYU.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNN Kabupaten Bandung Barat </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>21 - 31 Maret 2024</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>10 orang</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>11 hari</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>tujuan</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>kesimpulan</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Tidak, Pemblokiran</t>
+        </is>
+      </c>
+      <c r="N7" s="4">
+        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/REKAPITULASI_PEMBINAAN_TEKNIS_BNNP_JAWA_BARAT_TAHUN_2024.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>BNN Kabupaten Sukabumi</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>21 - 30 Maret 2024</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>10 orang</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>10 hari</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>contoh tujuan</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>contoh kesimpulan</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>Tidak, Pemblokiran</t>
+        </is>
+      </c>
+      <c r="N8" s="4">
+        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/REKAPITULASI_PEMBINAAN_TEKNIS_BNNP_JAWA_BARAT_TA_ywJweJI.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNN Kota Bandung </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>21 - 30 Maret 2024</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>10 orang</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>10 hari</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>Ada, Test</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Kesimpulan</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>Tidak, Anggaran tidak ada alokasi kegiatan</t>
+        </is>
+      </c>
+      <c r="N9" s="4">
+        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_uEpP616.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNN Kota Depok </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>18 Desember 2024</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>48 orang</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>1 hari</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Impedit maxime aper</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Ada, Sakit</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Exercitationem illum</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>Tidak, Pemblokiran jalan</t>
+        </is>
+      </c>
+      <c r="N10" s="4">
+        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/exported_data_3_CROCL99.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
+  <mergeCells count="5">
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/media/kegiatan/binaan_teknis/exported/REKAPITULASI PEMBINAAN TEKNIS BNNP JAWA BARAT TAHUN 2024.xlsx
+++ b/media/kegiatan/binaan_teknis/exported/REKAPITULASI PEMBINAAN TEKNIS BNNP JAWA BARAT TAHUN 2024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Kegiatan Satuan Kerja BNNP Jawa Barat" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data Kegiatan Satuan Kerja BNNP Jawa Barat" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -82,13 +84,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -461,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +480,7 @@
     <col width="28.6" customWidth="1" min="4" max="4"/>
     <col width="6.5" customWidth="1" min="5" max="5"/>
     <col width="39" customWidth="1" min="6" max="6"/>
-    <col width="26" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="32.5" customWidth="1" min="8" max="8"/>
     <col width="20.8" customWidth="1" min="9" max="9"/>
     <col width="27.3" customWidth="1" min="10" max="10"/>
@@ -561,300 +566,280 @@
       </c>
     </row>
     <row r="5">
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Rincian Detail</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>BNNP Jawa Barat</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5 kali</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Dikirim ke BNN Pusat</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>BNN Pusat</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>24 orang</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>3 hari</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>In voluptatem Conse</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Aut qui dolor repreh</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Et nostrum sunt tot</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Eos amet incidunt</t>
+        </is>
+      </c>
+      <c r="N5" s="5">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_gkdztYU.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>BNNP Jawa Barat</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>5 kali</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Dikirim ke BNN Pusat</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>BNN Pusat</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>21 - 23 Maret 2024</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>24 orang</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>3 hari</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>In voluptatem Conse</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Aut qui dolor repreh</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Et nostrum sunt tot</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>Eos amet incidunt</t>
-        </is>
-      </c>
-      <c r="N6" s="4">
-        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_gkdztYU.xlsx","Dokumentasi")</f>
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNN Kabupaten Bandung Barat </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>10 orang</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>11 hari</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>tujuan</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>kesimpulan</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Tidak, Pemblokiran</t>
+        </is>
+      </c>
+      <c r="N6" s="5">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/dayatif/binaan_teknis/REKAPITULASI_PEMBINAAN_TEKNIS_BNNP_JAWA_BARAT_TAHUN_2024.xlsx","Dokumentasi")</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BNN Kabupaten Bandung Barat </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>21 - 31 Maret 2024</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>BNN Kabupaten Sukabumi</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>10 orang</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>11 hari</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>tujuan</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>10 hari</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>contoh tujuan</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>Tidak</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>kesimpulan</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>contoh kesimpulan</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>Tidak, Pemblokiran</t>
         </is>
       </c>
-      <c r="N7" s="4">
-        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/REKAPITULASI_PEMBINAAN_TEKNIS_BNNP_JAWA_BARAT_TAHUN_2024.xlsx","Dokumentasi")</f>
+      <c r="N7" s="5">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/dayatif/binaan_teknis/REKAPITULASI_PEMBINAAN_TEKNIS_BNNP_JAWA_BARAT_TA_ywJweJI.xlsx","Dokumentasi")</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>BNN Kabupaten Sukabumi</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>21 - 30 Maret 2024</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNN Kota Bandung </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>10 orang</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>10 hari</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>contoh tujuan</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>Tidak</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>contoh kesimpulan</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>Tidak, Pemblokiran</t>
-        </is>
-      </c>
-      <c r="N8" s="4">
-        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/REKAPITULASI_PEMBINAAN_TEKNIS_BNNP_JAWA_BARAT_TA_ywJweJI.xlsx","Dokumentasi")</f>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>Ada, Test</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>Kesimpulan</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>Tidak, Anggaran tidak ada alokasi kegiatan</t>
+        </is>
+      </c>
+      <c r="N8" s="5">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_uEpP616.xlsx","Dokumentasi")</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BNN Kota Bandung </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>21 - 30 Maret 2024</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>10 orang</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>10 hari</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>asas</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>Ada, Test</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Kesimpulan</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>Tidak, Anggaran tidak ada alokasi kegiatan</t>
-        </is>
-      </c>
-      <c r="N9" s="4">
-        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/exported_data_1_uEpP616.xlsx","Dokumentasi")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="3" t="n">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BNN Kota Depok </t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>18 Desember 2024</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="G9" s="4" t="n">
+        <v>45644</v>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>48 orang</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>1 hari</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Impedit maxime aper</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>Ada, Sakit</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>Exercitationem illum</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>Tidak, Pemblokiran jalan</t>
         </is>
       </c>
-      <c r="N10" s="4">
-        <f>HYPERLINK("uploads/kegiatan/dayatif/binaan_teknis/exported_data_3_CROCL99.xlsx","Dokumentasi")</f>
+      <c r="N9" s="5">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/dayatif/binaan_teknis/exported_data_3_CROCL99.xlsx","Dokumentasi")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="A6:A10"/>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
